--- a/Exp 12 - WhitePaper Website/WhitePapers1.xlsx
+++ b/Exp 12 - WhitePaper Website/WhitePapers1.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+  <x:si>
+    <x:t>2025 UiPath AI and Automation Trends</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unlocking data potential:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Testing in the age of generative AI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Process mining and the path to digital transformation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Turn AI potential into AI results: 8 steps to success in banking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 Ways UiPath Test Suite can improve your testing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>How AI-powered automation benefits manufacturing organizations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 outcomes that matter in manufacturing</x:t>
+  </x:si>
   <x:si>
     <x:t>Turn AI potential into AI results: 8 steps to success in manufacturing</x:t>
   </x:si>
@@ -22,36 +46,12 @@
     <x:t>Intelligent document processing: Build your own, or buy as a service?</x:t>
   </x:si>
   <x:si>
-    <x:t>Accelerating SAP cloud transformation with AI and enterprise automation from UiPath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Five steps to make Generative AI work for your business</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Testing in the age of generative AI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Process mining and the path to digital transformation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>How AI-powered automation benefits manufacturing organizations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 outcomes that matter in manufacturing</x:t>
-  </x:si>
-  <x:si>
     <x:t>Turn AI potential into AI results: 8 steps to success for healthcare payers</x:t>
   </x:si>
   <x:si>
     <x:t>The Ultimate Guide to Intelligent Document Processing</x:t>
   </x:si>
   <x:si>
-    <x:t>Turn AI potential into AI results: 8 steps to success in telecommunications</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 opportunities to realize new value in banking</x:t>
-  </x:si>
-  <x:si>
     <x:t>Modernize risk management with GRC automation</x:t>
   </x:si>
   <x:si>
@@ -79,13 +79,7 @@
     <x:t>Destination: Supply chain automation</x:t>
   </x:si>
   <x:si>
-    <x:t>Turn AI potential into AI results: 8 steps to success in banking</x:t>
-  </x:si>
-  <x:si>
     <x:t>Destination: Telecom automation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 Ways UiPath Test Suite can improve your testing</x:t>
   </x:si>
   <x:si>
     <x:t>Customer experience in banking</x:t>
@@ -838,497 +832,497 @@
     </x:row>
     <x:row r="22" spans="1:1">
       <x:c r="A22" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:1">
       <x:c r="A23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1">
       <x:c r="A24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:1">
       <x:c r="A25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
       <x:c r="A26" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:1">
       <x:c r="A27" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:1">
       <x:c r="A28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:1">
       <x:c r="A29" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:1">
       <x:c r="A30" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:1">
       <x:c r="A31" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:1">
       <x:c r="A32" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:1">
       <x:c r="A33" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:1">
       <x:c r="A34" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:1">
       <x:c r="A35" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:1">
       <x:c r="A36" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:1">
       <x:c r="A37" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:1">
       <x:c r="A38" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:1">
       <x:c r="A39" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:1">
       <x:c r="A40" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:1">
       <x:c r="A41" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:1">
       <x:c r="A42" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:1">
       <x:c r="A43" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:1">
       <x:c r="A44" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:1">
       <x:c r="A45" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:1">
       <x:c r="A46" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:1">
       <x:c r="A47" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:1">
       <x:c r="A48" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:1">
       <x:c r="A59" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:1">
       <x:c r="A60" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:1">
       <x:c r="A61" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:1">
       <x:c r="A62" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:1">
       <x:c r="A63" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:1">
       <x:c r="A64" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:1">
       <x:c r="A65" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:1">
       <x:c r="A66" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:1">
       <x:c r="A67" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:1">
       <x:c r="A68" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:1">
       <x:c r="A69" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:1">
       <x:c r="A70" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:1">
       <x:c r="A71" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:1">
       <x:c r="A72" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:1">
       <x:c r="A73" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:1">
       <x:c r="A74" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:1">
       <x:c r="A75" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:1">
       <x:c r="A76" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:1">
       <x:c r="A77" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:1">
       <x:c r="A78" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:1">
       <x:c r="A79" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:1">
       <x:c r="A80" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:1">
       <x:c r="A81" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:1">
       <x:c r="A82" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:1">
       <x:c r="A83" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:1">
       <x:c r="A84" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:1">
       <x:c r="A85" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:1">
       <x:c r="A86" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:1">
       <x:c r="A87" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:1">
       <x:c r="A88" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:1">
       <x:c r="A89" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:1">
       <x:c r="A90" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:1">
       <x:c r="A91" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:1">
       <x:c r="A92" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:1">
       <x:c r="A93" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:1">
       <x:c r="A94" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:1">
       <x:c r="A95" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:1">
       <x:c r="A96" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:1">
       <x:c r="A97" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:1">
       <x:c r="A98" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:1">
       <x:c r="A99" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:1">
       <x:c r="A100" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:1">
       <x:c r="A101" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:1">
       <x:c r="A102" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:1">
       <x:c r="A103" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:1">
       <x:c r="A104" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:1">
       <x:c r="A105" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:1">
       <x:c r="A106" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:1">
       <x:c r="A107" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:1">
       <x:c r="A108" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:1">
       <x:c r="A109" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:1">
       <x:c r="A110" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:1">
       <x:c r="A111" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:1">
       <x:c r="A112" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:1">
       <x:c r="A113" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:1">
       <x:c r="A114" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:1">
       <x:c r="A115" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:1">
       <x:c r="A116" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:1">
       <x:c r="A117" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:1">
       <x:c r="A118" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:1">
       <x:c r="A119" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:1">
       <x:c r="A120" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
